--- a/src/test/java/dataEngine/WO Track Renewals 5.xlsx
+++ b/src/test/java/dataEngine/WO Track Renewals 5.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="18195" windowHeight="10290"/>
@@ -48,9 +48,6 @@
     <t>openBrowser</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
   </si>
   <si>
     <t xml:space="preserve">Issue with ScheduledStart and Finish turns to readonly, revert after bug is fixed: </t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -832,8 +832,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1131,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C154" sqref="C154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,13 +1207,13 @@
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="18">
         <v>1</v>
@@ -1194,7 +1222,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="15"/>
@@ -1202,119 +1230,119 @@
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="H6" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="18">
         <v>1</v>
@@ -1322,60 +1350,60 @@
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>65</v>
-      </c>
       <c r="G9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="G11" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="18" t="b">
         <v>0</v>
@@ -1384,40 +1412,40 @@
     </row>
     <row r="12" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>71</v>
       </c>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="18" t="s">
+      <c r="G13" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="H13" s="18" t="b">
         <v>1</v>
@@ -1425,19 +1453,19 @@
     </row>
     <row r="14" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>76</v>
-      </c>
       <c r="G14" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="18" t="b">
         <v>0</v>
@@ -1445,19 +1473,19 @@
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="18">
         <v>1</v>
@@ -1465,19 +1493,19 @@
     </row>
     <row r="16" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H16" s="18">
         <v>1</v>
@@ -1485,19 +1513,19 @@
     </row>
     <row r="17" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="18" t="b">
         <v>0</v>
@@ -1505,19 +1533,19 @@
     </row>
     <row r="18" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H18" s="18" t="b">
         <v>0</v>
@@ -17897,19 +17925,19 @@
     </row>
     <row r="19" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H19" s="18" t="b">
         <v>1</v>
@@ -17917,19 +17945,19 @@
     </row>
     <row r="20" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" s="18" t="b">
         <v>0</v>
@@ -17937,19 +17965,19 @@
     </row>
     <row r="21" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H21" s="18" t="b">
         <v>1</v>
@@ -17958,19 +17986,19 @@
     </row>
     <row r="22" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" s="18" t="b">
         <v>1</v>
@@ -17978,19 +18006,19 @@
     </row>
     <row r="23" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H23" s="18" t="b">
         <v>1</v>
@@ -17998,19 +18026,19 @@
     </row>
     <row r="24" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="18" t="b">
         <v>1</v>
@@ -18018,19 +18046,19 @@
     </row>
     <row r="25" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H25" s="18" t="b">
         <v>0</v>
@@ -18038,19 +18066,19 @@
     </row>
     <row r="26" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H26" s="18" t="b">
         <v>0</v>
@@ -18058,51 +18086,51 @@
     </row>
     <row r="27" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H27" s="18" t="b">
         <v>0</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H28" s="18" t="b">
         <v>0</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L28" s="18" t="b">
         <v>0</v>
@@ -18110,28 +18138,28 @@
     </row>
     <row r="29" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29" s="18" t="b">
         <v>0</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L29" s="18" t="b">
         <v>0</v>
@@ -18139,19 +18167,19 @@
     </row>
     <row r="30" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" s="18" t="b">
         <v>0</v>
@@ -18159,59 +18187,59 @@
     </row>
     <row r="31" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:16384" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33" s="18">
         <v>1</v>
@@ -18219,39 +18247,39 @@
     </row>
     <row r="34" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="18">
         <v>1</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="18">
         <v>1</v>
@@ -18259,19 +18287,19 @@
     </row>
     <row r="36" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H36" s="18" t="b">
         <v>0</v>
@@ -18279,19 +18307,19 @@
     </row>
     <row r="37" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H37" s="18" t="b">
         <v>0</v>
@@ -18299,19 +18327,19 @@
     </row>
     <row r="38" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38" s="18">
         <v>1</v>
@@ -18319,19 +18347,19 @@
     </row>
     <row r="39" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H39" s="18">
         <v>1</v>
@@ -18339,19 +18367,19 @@
     </row>
     <row r="40" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40" s="18">
         <v>1</v>
@@ -18359,19 +18387,19 @@
     </row>
     <row r="41" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H41" s="18">
         <v>27</v>
@@ -18379,19 +18407,19 @@
     </row>
     <row r="42" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42" s="18">
         <v>1</v>
@@ -18399,39 +18427,39 @@
     </row>
     <row r="43" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44" s="18">
         <v>1</v>
@@ -18439,39 +18467,39 @@
     </row>
     <row r="45" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="18" t="b">
         <v>0</v>
@@ -18479,19 +18507,19 @@
     </row>
     <row r="47" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H47" s="18" t="b">
         <v>1</v>
@@ -18499,19 +18527,19 @@
     </row>
     <row r="48" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48" s="18">
         <v>1</v>
@@ -18519,19 +18547,19 @@
     </row>
     <row r="49" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="18">
         <v>18</v>
@@ -18539,19 +18567,19 @@
     </row>
     <row r="50" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50" s="18">
         <v>1</v>
@@ -18559,19 +18587,19 @@
     </row>
     <row r="51" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="18">
         <v>27</v>
@@ -18580,19 +18608,19 @@
     </row>
     <row r="52" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52" s="18">
         <v>1</v>
@@ -18601,19 +18629,19 @@
     </row>
     <row r="53" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" s="18">
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="18">
         <v>1</v>
@@ -18621,122 +18649,122 @@
     </row>
     <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K56" s="18"/>
     </row>
     <row r="57" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G57" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K57" s="18"/>
     </row>
     <row r="58" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K58" s="18"/>
     </row>
     <row r="59" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F59" s="18">
         <v>1</v>
       </c>
       <c r="G59" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H59" s="18">
         <v>1</v>
@@ -18744,59 +18772,59 @@
     </row>
     <row r="60" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F60" s="18">
         <v>1</v>
       </c>
       <c r="G60" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="18" t="s">
         <v>221</v>
-      </c>
-      <c r="H60" s="18" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G61" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="H61" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62" s="18" t="b">
         <v>0</v>
@@ -18805,19 +18833,19 @@
     </row>
     <row r="63" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G63" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H63" s="18" t="b">
         <v>1</v>
@@ -18825,19 +18853,19 @@
     </row>
     <row r="64" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G64" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H64" s="18" t="b">
         <v>1</v>
@@ -18845,19 +18873,19 @@
     </row>
     <row r="65" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G65" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H65" s="18">
         <v>0</v>
@@ -18865,19 +18893,19 @@
     </row>
     <row r="66" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F66" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G66" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H66" s="18" t="b">
         <v>0</v>
@@ -18885,19 +18913,19 @@
     </row>
     <row r="67" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" s="18" t="b">
         <v>0</v>
@@ -18905,19 +18933,19 @@
     </row>
     <row r="68" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H68" s="18" t="b">
         <v>0</v>
@@ -18925,39 +18953,39 @@
     </row>
     <row r="69" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G69" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H69" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="H69" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70" s="18">
         <v>1</v>
       </c>
       <c r="G70" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H70" s="18">
         <v>1</v>
@@ -18965,13 +18993,13 @@
     </row>
     <row r="71" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="18">
         <v>1</v>
@@ -18980,124 +19008,124 @@
         <v>9</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H73" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F75" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="14" t="s">
-        <v>15</v>
-      </c>
       <c r="H75" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H77" s="18">
         <v>1</v>
@@ -19105,59 +19133,59 @@
     </row>
     <row r="78" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G78" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G79" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G80" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H80" s="18" t="b">
         <v>0</v>
@@ -19165,39 +19193,39 @@
     </row>
     <row r="81" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F81" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="G81" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H81" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F82" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>74</v>
       </c>
       <c r="H82" s="18" t="b">
         <v>1</v>
@@ -19205,19 +19233,19 @@
     </row>
     <row r="83" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G83" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H83" s="18" t="b">
         <v>0</v>
@@ -19225,19 +19253,19 @@
     </row>
     <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H84" s="18">
         <v>1</v>
@@ -19245,19 +19273,19 @@
     </row>
     <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F85" s="18">
         <v>1</v>
       </c>
       <c r="G85" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H85" s="18">
         <v>1</v>
@@ -19265,19 +19293,19 @@
     </row>
     <row r="86" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86" s="18" t="b">
         <v>0</v>
@@ -19285,19 +19313,19 @@
     </row>
     <row r="87" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H87" s="18" t="b">
         <v>0</v>
@@ -19305,19 +19333,19 @@
     </row>
     <row r="88" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G88" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H88" s="18" t="b">
         <v>1</v>
@@ -19325,19 +19353,19 @@
     </row>
     <row r="89" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G89" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89" s="18" t="b">
         <v>0</v>
@@ -19345,19 +19373,19 @@
     </row>
     <row r="90" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F90" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G90" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="G90" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H90" s="18" t="b">
         <v>1</v>
@@ -19365,19 +19393,19 @@
     </row>
     <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G91" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91" s="18" t="b">
         <v>1</v>
@@ -19385,19 +19413,19 @@
     </row>
     <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G92" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H92" s="18" t="b">
         <v>1</v>
@@ -19405,19 +19433,19 @@
     </row>
     <row r="93" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93" s="18" t="b">
         <v>1</v>
@@ -19425,19 +19453,19 @@
     </row>
     <row r="94" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H94" s="18" t="b">
         <v>0</v>
@@ -19445,19 +19473,19 @@
     </row>
     <row r="95" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H95" s="18" t="b">
         <v>0</v>
@@ -19465,28 +19493,28 @@
     </row>
     <row r="96" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H96" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M96" s="18" t="b">
         <v>0</v>
@@ -19494,28 +19522,28 @@
     </row>
     <row r="97" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H97" s="18" t="b">
         <v>0</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M97" s="18" t="b">
         <v>0</v>
@@ -19523,19 +19551,19 @@
     </row>
     <row r="98" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H98" s="18" t="b">
         <v>0</v>
@@ -19543,19 +19571,19 @@
     </row>
     <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H99" s="18" t="b">
         <v>0</v>
@@ -19563,59 +19591,59 @@
     </row>
     <row r="100" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F100" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="18" t="s">
         <v>35</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="18" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="102" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H102" s="18">
         <v>1</v>
@@ -19623,39 +19651,39 @@
     </row>
     <row r="103" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F104" s="18">
         <v>1</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H104" s="18">
         <v>1</v>
@@ -19663,19 +19691,19 @@
     </row>
     <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G105" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H105" s="18" t="b">
         <v>0</v>
@@ -19683,19 +19711,19 @@
     </row>
     <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G106" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106" s="18" t="b">
         <v>0</v>
@@ -19703,19 +19731,19 @@
     </row>
     <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G107" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H107" s="18">
         <v>1</v>
@@ -19723,19 +19751,19 @@
     </row>
     <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G108" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H108" s="18">
         <v>1</v>
@@ -19743,19 +19771,19 @@
     </row>
     <row r="109" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G109" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H109" s="18">
         <v>1</v>
@@ -19763,19 +19791,19 @@
     </row>
     <row r="110" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G110" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H110" s="18">
         <v>27</v>
@@ -19783,19 +19811,19 @@
     </row>
     <row r="111" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H111" s="18">
         <v>1</v>
@@ -19803,39 +19831,39 @@
     </row>
     <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H113" s="18">
         <v>1</v>
@@ -19843,39 +19871,39 @@
     </row>
     <row r="114" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G115" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H115" s="18" t="b">
         <v>0</v>
@@ -19883,19 +19911,19 @@
     </row>
     <row r="116" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G116" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H116" s="18" t="b">
         <v>1</v>
@@ -19903,19 +19931,19 @@
     </row>
     <row r="117" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G117" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H117" s="18">
         <v>1</v>
@@ -19923,19 +19951,19 @@
     </row>
     <row r="118" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G118" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" s="18">
         <v>1</v>
@@ -19943,19 +19971,19 @@
     </row>
     <row r="119" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G119" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H119" s="18">
         <v>1</v>
@@ -19963,19 +19991,19 @@
     </row>
     <row r="120" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G120" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H120" s="18">
         <v>27</v>
@@ -19983,19 +20011,19 @@
     </row>
     <row r="121" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F121" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G121" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H121" s="18">
         <v>1</v>
@@ -20003,19 +20031,19 @@
     </row>
     <row r="122" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F122" s="18">
         <v>1</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H122" s="18">
         <v>1</v>
@@ -20023,119 +20051,119 @@
     </row>
     <row r="123" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F123" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="19" t="s">
         <v>17</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H123" s="19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F125" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F126" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G126" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G127" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F128" s="24">
         <v>1</v>
       </c>
       <c r="G128" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H128" s="24">
         <v>1</v>
@@ -20143,59 +20171,59 @@
     </row>
     <row r="129" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F129" s="24">
         <v>1</v>
       </c>
       <c r="G129" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H129" s="24" t="s">
         <v>221</v>
-      </c>
-      <c r="H129" s="24" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="130" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F130" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G130" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="H130" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F131" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G131" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H131" s="18" t="b">
         <v>0</v>
@@ -20203,19 +20231,19 @@
     </row>
     <row r="132" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F132" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G132" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H132" s="18" t="b">
         <v>1</v>
@@ -20223,19 +20251,19 @@
     </row>
     <row r="133" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F133" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G133" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H133" s="18" t="b">
         <v>1</v>
@@ -20243,19 +20271,19 @@
     </row>
     <row r="134" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F134" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G134" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134" s="18">
         <v>0</v>
@@ -20263,19 +20291,19 @@
     </row>
     <row r="135" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F135" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G135" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="G135" s="14" t="s">
-        <v>49</v>
       </c>
       <c r="H135" s="18" t="b">
         <v>0</v>
@@ -20283,19 +20311,19 @@
     </row>
     <row r="136" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G136" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H136" s="18" t="b">
         <v>0</v>
@@ -20303,19 +20331,19 @@
     </row>
     <row r="137" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F137" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G137" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H137" s="18" t="b">
         <v>0</v>
@@ -20323,39 +20351,39 @@
     </row>
     <row r="138" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F138" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G138" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H138" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="H138" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F139" s="18">
         <v>1</v>
       </c>
       <c r="G139" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H139" s="18">
         <v>1</v>
@@ -20363,13 +20391,13 @@
     </row>
     <row r="140" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F140" s="18">
         <v>1</v>
@@ -20378,144 +20406,144 @@
         <v>9</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>10</v>
+        <v>228</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F141" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F142" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G142" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H142" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="H142" s="18" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="143" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D143" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="F143" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F144" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G144" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H144" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F145" s="13">
         <v>1</v>
       </c>
       <c r="G145" s="23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H145" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G146" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H146" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="147" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F147" s="13">
         <v>1</v>
       </c>
       <c r="G147" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H147" s="24">
         <v>1</v>
@@ -20523,19 +20551,19 @@
     </row>
     <row r="148" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F148" s="24">
         <v>1</v>
       </c>
       <c r="G148" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H148" s="24">
         <v>1</v>
